--- a/静态不符合项列表脚本/Demo.xlsx
+++ b/静态不符合项列表脚本/Demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v5682\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\pythontest\静态不符合项列表脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AA0976-DACF-4C0F-A285-9063C65943FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355A96B9-5712-43AD-AA0B-D12F4B1A39F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="4095" windowWidth="23760" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="2685" windowWidth="23760" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="规则检查不符合项列表" sheetId="5" r:id="rId1"/>
@@ -240,18 +240,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,55 +591,55 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
-    <col min="9" max="9" width="19.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="63.625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
